--- a/webapi.xlsx
+++ b/webapi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -38,71 +38,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于获取被统计应用的配置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://shouji.2345.com/api/usbhelp_time.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于获取服务端到达时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://update.app.2345.com/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于发送UsbHelper崩溃信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_app_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://app.50bang.org/index.php?action=sendData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://shouji.2345.com/api/api_usbhelp_config.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于获取被统计应用的配置信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://shouji.2345.com/api/usbhelp_time.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于获取服务端到达时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://update.app.2345.com/index.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://app.50bang.org/index.php?action=sendData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于发送UsbHelper崩溃信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关参数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_app_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送频率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,11 +162,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -240,6 +245,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -274,6 +280,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -449,14 +456,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="64.125" customWidth="1"/>
@@ -465,9 +472,9 @@
     <col min="6" max="7" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -479,22 +486,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,57 +512,57 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -573,12 +580,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -586,12 +593,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
